--- a/data/evaluation/evaluation_South_Spring_Carrots.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Carrots.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4304.44271793779</v>
+        <v>4208.13886975562</v>
       </c>
       <c r="C4" t="n">
-        <v>73106875.07518207</v>
+        <v>73411371.09819929</v>
       </c>
       <c r="D4" t="n">
-        <v>8550.255848521849</v>
+        <v>8568.043598056634</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2831459147058617</v>
+        <v>0.2801601597022285</v>
       </c>
     </row>
     <row r="5">
